--- a/data/trans_bre/P1_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.034516806807193</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.790954546432245</v>
+        <v>-2.790954546432239</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1878342446778654</v>
@@ -649,7 +649,7 @@
         <v>0.08227564994973731</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1112803106652732</v>
+        <v>-0.111280310665273</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.595625077577344</v>
+        <v>-1.783256496371708</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.166455756469883</v>
+        <v>-2.340823605627796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.985836500133481</v>
+        <v>-1.833202094140722</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.388164616506117</v>
+        <v>-7.886182354017539</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1246944624508423</v>
+        <v>-0.1323140544403113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2185809782690241</v>
+        <v>-0.2380850398156756</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1384974224918578</v>
+        <v>-0.1337051899203228</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2897911080139045</v>
+        <v>-0.2760875868236141</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.576820818036754</v>
+        <v>5.161289976676422</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.110249415536006</v>
+        <v>2.80985648484189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.938634180833759</v>
+        <v>4.042910139527446</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.936904916437126</v>
+        <v>2.189194377433703</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6072651592415388</v>
+        <v>0.5617494332871794</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4195481355851016</v>
+        <v>0.3678247711218915</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3530656677479904</v>
+        <v>0.3698825275977882</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.08375897270999673</v>
+        <v>0.09719342509262333</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.1662593259278755</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8383307332523737</v>
+        <v>0.838330733252371</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4180076666891233</v>
@@ -749,7 +749,7 @@
         <v>-0.01306701454692684</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04938662755322418</v>
+        <v>0.04938662755322401</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3805512850294799</v>
+        <v>0.2051847933654862</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.37035244332851</v>
+        <v>1.436997641942125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.784107789011844</v>
+        <v>-3.026141790384896</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.107218300067311</v>
+        <v>-2.337717393667611</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05185175128906528</v>
+        <v>0.02537783992951172</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.17578417604459</v>
+        <v>0.161864908420306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2624903556557381</v>
+        <v>-0.2130821306081888</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1121261572182053</v>
+        <v>-0.1209967250804842</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.891684931225674</v>
+        <v>4.847204182434791</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.287000550906097</v>
+        <v>6.145589303721715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.881588902042553</v>
+        <v>3.030882921226556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.763976709219</v>
+        <v>3.922934268530116</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.957370292654054</v>
+        <v>0.9573326677710651</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.215091784809915</v>
+        <v>1.196272674891551</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2548380337597534</v>
+        <v>0.2760961470603541</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2525903762316277</v>
+        <v>0.2655818110607562</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.516960527721672</v>
+        <v>-2.594605286142615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.330016118354488</v>
+        <v>-1.371073223846142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.363176996282143</v>
+        <v>-2.658258726051002</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.266479234716261</v>
+        <v>-4.942242487543298</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3417736874591313</v>
+        <v>-0.3621906328334448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.127918976542829</v>
+        <v>-0.1370085303048701</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1890708793109417</v>
+        <v>-0.2058771487100051</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.27219258649457</v>
+        <v>-0.2614044867256458</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.713512503168801</v>
+        <v>1.607316565380449</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.719623962651004</v>
+        <v>4.494902067159844</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.518256540829515</v>
+        <v>4.127934679918368</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8997914574428275</v>
+        <v>1.100792289015939</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3453469971345974</v>
+        <v>0.3062063896115338</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6813011553909873</v>
+        <v>0.6320852164136326</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4716771940482271</v>
+        <v>0.4358506909316276</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05959327653798004</v>
+        <v>0.06835260766520514</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.055492661007883</v>
+        <v>-5.33280127098567</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.301945343761823</v>
+        <v>-3.979898536592873</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.425072289708246</v>
+        <v>-3.826957713969424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.402840941468862</v>
+        <v>-5.463428263154766</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5423803177580635</v>
+        <v>-0.5820037310811742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.313836109196395</v>
+        <v>-0.3083956936148345</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2037335914637234</v>
+        <v>-0.2399533880722988</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2619200571596613</v>
+        <v>-0.2623803227780127</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.230596243857452</v>
+        <v>2.259401484852206</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.749085226340174</v>
+        <v>4.841362501360594</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.595572929758736</v>
+        <v>5.605583638773704</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.275645227581724</v>
+        <v>1.698164895750913</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3618216103625938</v>
+        <v>0.413170437263324</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5469461443206101</v>
+        <v>0.5264434082120234</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.46261363970783</v>
+        <v>0.4556177534316695</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08135546168667003</v>
+        <v>0.1024974099095059</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2994036428516921</v>
+        <v>0.2539112014988825</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1366061682856714</v>
+        <v>0.1075150749070536</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.188392106193828</v>
+        <v>-1.142589493509876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.899355967045923</v>
+        <v>-3.012506466916985</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03980585909709133</v>
+        <v>0.03028699689084893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01479385582903705</v>
+        <v>0.01122716710390172</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08873286192062502</v>
+        <v>-0.0856038328546119</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1484899598538457</v>
+        <v>-0.1510140305856289</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.928870915252652</v>
+        <v>2.91043271544554</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.139793441102661</v>
+        <v>3.09978190893059</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.240914231292353</v>
+        <v>2.38913820389197</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5934577936872294</v>
+        <v>0.6257746692301893</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4555620703333659</v>
+        <v>0.4331378181534942</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4061176165735286</v>
+        <v>0.4069145306150749</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1883860944987744</v>
+        <v>0.1993429969383986</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0336361936581666</v>
+        <v>0.0358081413421512</v>
       </c>
     </row>
     <row r="19">
